--- a/data/trans_camb/P1001-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P1001-Estudios-trans_camb.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-0.915847996564875</v>
+        <v>-0.7447555262424435</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-4.61973694171337</v>
+        <v>-4.715660290987752</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>-2.903309349995926</v>
+        <v>-2.972707483949975</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>7.406912936626924</v>
+        <v>7.890187000480524</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>5.757388666408354</v>
+        <v>6.032579065014431</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>6.1555248085251</v>
+        <v>5.928845448287983</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>4.809617794440543</v>
+        <v>4.771203599759133</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>2.104574453760156</v>
+        <v>2.120570090601277</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>3.315570115017375</v>
+        <v>3.318115985336292</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>4.95174970509106</v>
+        <v>5.27502311306614</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.5894251300110429</v>
+        <v>1.030674283505073</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.405456618944052</v>
+        <v>3.300673048002145</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>13.72527917497917</v>
+        <v>13.63313101183986</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>12.71981333122051</v>
+        <v>12.43027051598661</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>11.8719509417429</v>
+        <v>12.00207327475787</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>8.928097388119943</v>
+        <v>9.251701644786502</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>6.589898813459031</v>
+        <v>6.460219113738844</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>7.5752531971249</v>
+        <v>7.593490084284997</v>
       </c>
     </row>
     <row r="7">
@@ -780,31 +780,31 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.07177709798733224</v>
+        <v>-0.06398956711752522</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.3663473857760998</v>
+        <v>-0.3782277249508172</v>
       </c>
       <c r="E8" s="6" t="n">
-        <v>-0.2398213639590807</v>
+        <v>-0.2394549823324626</v>
       </c>
       <c r="F8" s="6" t="n">
-        <v>0.4794822224750316</v>
+        <v>0.5181329078389273</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.3846162111032048</v>
+        <v>0.392570982621036</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.4062402421846298</v>
+        <v>0.388288878597579</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3570316453178948</v>
+        <v>0.3573386984309459</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1581815527776508</v>
+        <v>0.1541558681173539</v>
       </c>
       <c r="K8" s="6" t="n">
-        <v>0.2426674542523252</v>
+        <v>0.2346607332781652</v>
       </c>
     </row>
     <row r="9">
@@ -815,31 +815,31 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>0.509351450356055</v>
+        <v>0.5450575676093118</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>0.07315175797952432</v>
+        <v>0.1089378518460965</v>
       </c>
       <c r="E9" s="6" t="n">
-        <v>0.3441401559332118</v>
+        <v>0.3243782556637586</v>
       </c>
       <c r="F9" s="6" t="n">
-        <v>1.111060421288325</v>
+        <v>1.10409648080889</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.005436155152236</v>
+        <v>0.9986301982599195</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.9601653395725258</v>
+        <v>0.9716673052036583</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7632333294748624</v>
+        <v>0.7979025026795921</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5646160467090743</v>
+        <v>0.5539246887730036</v>
       </c>
       <c r="K9" s="6" t="n">
-        <v>0.6457654845525643</v>
+        <v>0.6427006700604915</v>
       </c>
     </row>
     <row r="10">
@@ -889,31 +889,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-0.2430176155088115</v>
+        <v>-0.3740825839338201</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.899526553354001</v>
+        <v>0.7307418601828999</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.3766265380464281</v>
+        <v>0.3160140643775395</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9518310804475492</v>
+        <v>1.089360566709989</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>-0.3342402488293992</v>
+        <v>-0.137688797092724</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.2816087812142086</v>
+        <v>0.1955100808483096</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.7261734236372125</v>
+        <v>0.6069968205251426</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.7361389143205065</v>
+        <v>0.7948766701757907</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.7917822434448921</v>
+        <v>0.7859566776698615</v>
       </c>
     </row>
     <row r="12">
@@ -924,31 +924,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>2.316484300317418</v>
+        <v>2.304509950616991</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>3.633723579360955</v>
+        <v>3.644636938570203</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>3.204732124776605</v>
+        <v>3.130375784199415</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.044345783835643</v>
+        <v>4.821159849156962</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>3.636368998509908</v>
+        <v>3.563235676433734</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>3.688465783394337</v>
+        <v>3.53614247499614</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>3.011570385824957</v>
+        <v>2.995501727101776</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>3.046858330611428</v>
+        <v>3.178377305670354</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>2.997347755453592</v>
+        <v>2.957787222859876</v>
       </c>
     </row>
     <row r="13">
@@ -965,7 +965,7 @@
         <v>0.6157809778350027</v>
       </c>
       <c r="E13" s="6" t="n">
-        <v>0.4876301085910278</v>
+        <v>0.4876301085910277</v>
       </c>
       <c r="F13" s="6" t="n">
         <v>0.4175841714065718</v>
@@ -994,31 +994,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.07495246073974464</v>
+        <v>-0.089965703120176</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>0.1944263544932958</v>
+        <v>0.1573360860558582</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>0.07739646034011707</v>
+        <v>0.04487667237282365</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>0.1203451369826269</v>
+        <v>0.1418916558254458</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>-0.04120457454364421</v>
+        <v>-0.01709658476124355</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02402957477795984</v>
+        <v>0.02493107101294829</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1246617617016498</v>
+        <v>0.1021767334680165</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.1249834566806556</v>
+        <v>0.1445536355469303</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>0.1373423079677613</v>
+        <v>0.1266085877003798</v>
       </c>
     </row>
     <row r="15">
@@ -1029,31 +1029,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>0.7644134875931555</v>
+        <v>0.818707662123213</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>1.223689228991141</v>
+        <v>1.263588129013752</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>1.074635944030939</v>
+        <v>1.077012440505194</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>0.8328100091284482</v>
+        <v>0.8055576427334341</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.6000747215268272</v>
+        <v>0.6059120967365615</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.604485276841472</v>
+        <v>0.612299999884202</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.6449165396194662</v>
+        <v>0.6387820170814713</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.6520434273563802</v>
+        <v>0.7005318507018197</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>0.6378670884027435</v>
+        <v>0.6228183764137772</v>
       </c>
     </row>
     <row r="16">
@@ -1083,7 +1083,7 @@
         <v>0.3349974469585841</v>
       </c>
       <c r="H16" s="5" t="n">
-        <v>1.886317796657808</v>
+        <v>1.886317796657807</v>
       </c>
       <c r="I16" s="5" t="n">
         <v>0.036874440765685</v>
@@ -1092,7 +1092,7 @@
         <v>-0.3173618685440499</v>
       </c>
       <c r="K16" s="5" t="n">
-        <v>1.021347270618292</v>
+        <v>1.02134727061829</v>
       </c>
     </row>
     <row r="17">
@@ -1103,31 +1103,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-2.335118844880651</v>
+        <v>-1.956165205996294</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-3.493203641198855</v>
+        <v>-3.496055015284068</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>-2.590304287897303</v>
+        <v>-2.321100280038974</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>-3.591051289286094</v>
+        <v>-3.579815767207476</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>-2.748324883699842</v>
+        <v>-2.643987318978951</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>-1.142686089057773</v>
+        <v>-0.9602519144079974</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>-1.893295848224584</v>
+        <v>-2.110347417603137</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>-2.394339044601328</v>
+        <v>-2.132416690788419</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>-1.063347558034364</v>
+        <v>-0.8414311128015994</v>
       </c>
     </row>
     <row r="18">
@@ -1138,31 +1138,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.49811205028879</v>
+        <v>3.869806435472968</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>1.032178686311508</v>
+        <v>1.130055385761007</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.225100591742295</v>
+        <v>2.341645661596916</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.329052070010534</v>
+        <v>2.538725253514134</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>3.363420098858701</v>
+        <v>3.313642511897421</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>4.861375790167165</v>
+        <v>4.745901062441499</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.265837260394489</v>
+        <v>2.113300283337681</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>1.557010470047383</v>
+        <v>1.579539378619843</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.823429618397024</v>
+        <v>2.642661006132703</v>
       </c>
     </row>
     <row r="19">
@@ -1188,7 +1188,7 @@
         <v>0.0578462001828213</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3257228312172065</v>
+        <v>0.3257228312172062</v>
       </c>
       <c r="I19" s="6" t="n">
         <v>0.007569706917611218</v>
@@ -1197,7 +1197,7 @@
         <v>-0.06514909194065684</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>0.2096655390331314</v>
+        <v>0.209665539033131</v>
       </c>
     </row>
     <row r="20">
@@ -1208,31 +1208,31 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.4549132829284291</v>
+        <v>-0.3905777089336172</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.6524732242031972</v>
+        <v>-0.6344638687296558</v>
       </c>
       <c r="E20" s="6" t="n">
-        <v>-0.4835712221938827</v>
+        <v>-0.4586475912915904</v>
       </c>
       <c r="F20" s="6" t="n">
-        <v>-0.5144398714177231</v>
+        <v>-0.5101013687600779</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>-0.3728319677153583</v>
+        <v>-0.3614363856271947</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>-0.1503799124101406</v>
+        <v>-0.1205561860919406</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>-0.3402657848782401</v>
+        <v>-0.3616629376539617</v>
       </c>
       <c r="J20" s="6" t="n">
-        <v>-0.3956274384970936</v>
+        <v>-0.3707396795446616</v>
       </c>
       <c r="K20" s="6" t="n">
-        <v>-0.1972333269997174</v>
+        <v>-0.1465398146677414</v>
       </c>
     </row>
     <row r="21">
@@ -1243,31 +1243,31 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>1.157944881064121</v>
+        <v>1.455733043089236</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.3922532705690571</v>
+        <v>0.4277029411548654</v>
       </c>
       <c r="E21" s="6" t="n">
-        <v>0.7796526499904126</v>
+        <v>0.8589348640065215</v>
       </c>
       <c r="F21" s="6" t="n">
-        <v>0.5204798533127355</v>
+        <v>0.6109934530925576</v>
       </c>
       <c r="G21" s="6" t="n">
-        <v>0.7976928708478783</v>
+        <v>0.7614922335936553</v>
       </c>
       <c r="H21" s="6" t="n">
-        <v>1.175462645770335</v>
+        <v>1.141484389619143</v>
       </c>
       <c r="I21" s="6" t="n">
-        <v>0.5846739088438367</v>
+        <v>0.5474611078366497</v>
       </c>
       <c r="J21" s="6" t="n">
-        <v>0.4243807393703405</v>
+        <v>0.4030142103886432</v>
       </c>
       <c r="K21" s="6" t="n">
-        <v>0.7267124320523919</v>
+        <v>0.6844633402184912</v>
       </c>
     </row>
     <row r="22">
@@ -1288,7 +1288,7 @@
         <v>0.04800192699284944</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>-0.01976011496591309</v>
+        <v>-0.01976011496591379</v>
       </c>
       <c r="F22" s="5" t="n">
         <v>5.205884976766084</v>
@@ -1297,7 +1297,7 @@
         <v>2.819347499459433</v>
       </c>
       <c r="H22" s="5" t="n">
-        <v>2.299889983746779</v>
+        <v>2.299889983746782</v>
       </c>
       <c r="I22" s="5" t="n">
         <v>3.164483609888691</v>
@@ -1306,7 +1306,7 @@
         <v>1.476332816479492</v>
       </c>
       <c r="K22" s="5" t="n">
-        <v>1.195099879001421</v>
+        <v>1.19509987900142</v>
       </c>
     </row>
     <row r="23">
@@ -1317,31 +1317,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-0.2045509104597125</v>
+        <v>-0.2303579614774891</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.070793073210092</v>
+        <v>-1.171325844934786</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>-1.241579266485917</v>
+        <v>-1.215641797390814</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>3.628357166635632</v>
+        <v>3.609381692235937</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.410556333685753</v>
+        <v>1.309312108359946</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.9473683685997861</v>
+        <v>0.8808367033351647</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>2.141934670173784</v>
+        <v>2.205074236169776</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.4932422834877275</v>
+        <v>0.5119979861521745</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.2761020563610993</v>
+        <v>0.2596068947603</v>
       </c>
     </row>
     <row r="24">
@@ -1352,31 +1352,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>2.343430442123531</v>
+        <v>2.270999583648357</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.36339585468974</v>
+        <v>1.234622420194589</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.159931884068424</v>
+        <v>1.046969019880199</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>6.785314484698677</v>
+        <v>6.76597361125635</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>4.517280789136486</v>
+        <v>4.386754316136743</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>3.568355339187813</v>
+        <v>3.572232347604603</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>4.055369139375857</v>
+        <v>4.215021102477343</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.515463246881982</v>
+        <v>2.408997007060195</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>2.093919826427587</v>
+        <v>2.081003726899472</v>
       </c>
     </row>
     <row r="25">
@@ -1393,7 +1393,7 @@
         <v>0.007933897904395979</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>-0.00326600919046511</v>
+        <v>-0.003266009190465225</v>
       </c>
       <c r="F25" s="6" t="n">
         <v>0.5527204709064111</v>
@@ -1402,7 +1402,7 @@
         <v>0.299336440298775</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2441844720970247</v>
+        <v>0.244184472097025</v>
       </c>
       <c r="I25" s="6" t="n">
         <v>0.4077721359832631</v>
@@ -1411,7 +1411,7 @@
         <v>0.1902387435715632</v>
       </c>
       <c r="K25" s="6" t="n">
-        <v>0.1539993535914981</v>
+        <v>0.1539993535914979</v>
       </c>
     </row>
     <row r="26">
@@ -1422,31 +1422,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.02969697671235865</v>
+        <v>-0.03752370926879563</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.162207390979314</v>
+        <v>-0.1781850723052446</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>-0.1861343143622149</v>
+        <v>-0.1810857542401331</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.3531297092253889</v>
+        <v>0.3597256243220551</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.1387718019337019</v>
+        <v>0.1323096125913719</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.09359818479423114</v>
+        <v>0.08334690672663185</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2598242788296036</v>
+        <v>0.2648489532271054</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>0.05877145676450529</v>
+        <v>0.06225027811095878</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>0.03227175011843601</v>
+        <v>0.03302236059975058</v>
       </c>
     </row>
     <row r="27">
@@ -1457,31 +1457,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>0.4197527150139708</v>
+        <v>0.4067162665436267</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.2510549367469693</v>
+        <v>0.2298165231511185</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>0.2128228082022781</v>
+        <v>0.1898094309222887</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>0.7825134229257438</v>
+        <v>0.7842698335994424</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>0.5158292567037536</v>
+        <v>0.5085321090978639</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>0.414604478468979</v>
+        <v>0.4151848073745801</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>0.5584518664859712</v>
+        <v>0.5808027369757489</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>0.3437019808207082</v>
+        <v>0.3276710681938537</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>0.2858771831054973</v>
+        <v>0.2898027384526143</v>
       </c>
     </row>
     <row r="28">
